--- a/second_pass/welfare_results/3282_WR/analysis_results/net_series_3282_wr.xlsx
+++ b/second_pass/welfare_results/3282_WR/analysis_results/net_series_3282_wr.xlsx
@@ -368,7 +368,7 @@
         <v>1991</v>
       </c>
       <c r="B2" t="n">
-        <v>-3862991016718.38</v>
+        <v>-3900293550924.06</v>
       </c>
       <c r="C2" t="n">
         <v>101325389141.245</v>
@@ -379,7 +379,7 @@
         <v>1992</v>
       </c>
       <c r="B3" t="n">
-        <v>-3780833724898.1</v>
+        <v>-3820494591480.29</v>
       </c>
       <c r="C3" t="n">
         <v>99553880368.6495</v>
@@ -390,7 +390,7 @@
         <v>1993</v>
       </c>
       <c r="B4" t="n">
-        <v>-3738003557552.46</v>
+        <v>-3780839791614.69</v>
       </c>
       <c r="C4" t="n">
         <v>98695032200.904</v>
@@ -401,7 +401,7 @@
         <v>1994</v>
       </c>
       <c r="B5" t="n">
-        <v>-3730566507624.16</v>
+        <v>-3772821447614.85</v>
       </c>
       <c r="C5" t="n">
         <v>98605769880.2815</v>
@@ -412,7 +412,7 @@
         <v>1995</v>
       </c>
       <c r="B6" t="n">
-        <v>-3754810090415.73</v>
+        <v>-3795937135609.95</v>
       </c>
       <c r="C6" t="n">
         <v>99277657100.309</v>
@@ -423,7 +423,7 @@
         <v>1996</v>
       </c>
       <c r="B7" t="n">
-        <v>-3783728145546.59</v>
+        <v>-3823468237026.15</v>
       </c>
       <c r="C7" t="n">
         <v>100038584275.633</v>
@@ -434,7 +434,7 @@
         <v>1997</v>
       </c>
       <c r="B8" t="n">
-        <v>-3799176757601.1</v>
+        <v>-3837432710790.4</v>
       </c>
       <c r="C8" t="n">
         <v>100474592703.049</v>
@@ -445,7 +445,7 @@
         <v>1998</v>
       </c>
       <c r="B9" t="n">
-        <v>-3807538864433.24</v>
+        <v>-3847199178713.06</v>
       </c>
       <c r="C9" t="n">
         <v>101016014567.082</v>
@@ -456,7 +456,7 @@
         <v>1999</v>
       </c>
       <c r="B10" t="n">
-        <v>-3865089103247.33</v>
+        <v>-3903225814895.43</v>
       </c>
       <c r="C10" t="n">
         <v>102462434696.177</v>
@@ -467,7 +467,7 @@
         <v>2000</v>
       </c>
       <c r="B11" t="n">
-        <v>-3999770002808.3</v>
+        <v>-4038381509068.54</v>
       </c>
       <c r="C11" t="n">
         <v>105813793852.587</v>
@@ -478,7 +478,7 @@
         <v>2001</v>
       </c>
       <c r="B12" t="n">
-        <v>-4080670583854.77</v>
+        <v>-4117643303568.14</v>
       </c>
       <c r="C12" t="n">
         <v>107813784445.418</v>
@@ -489,7 +489,7 @@
         <v>2002</v>
       </c>
       <c r="B13" t="n">
-        <v>-4174201951943.55</v>
+        <v>-4209852878391.12</v>
       </c>
       <c r="C13" t="n">
         <v>110051302238.458</v>
@@ -500,7 +500,7 @@
         <v>2003</v>
       </c>
       <c r="B14" t="n">
-        <v>-4252518431008.3</v>
+        <v>-4285744674689.87</v>
       </c>
       <c r="C14" t="n">
         <v>112025583530.39</v>
@@ -511,7 +511,7 @@
         <v>2004</v>
       </c>
       <c r="B15" t="n">
-        <v>-4317387990957.52</v>
+        <v>-4346375546889.86</v>
       </c>
       <c r="C15" t="n">
         <v>113643712208.792</v>
@@ -522,7 +522,7 @@
         <v>2005</v>
       </c>
       <c r="B16" t="n">
-        <v>-4446857277281.85</v>
+        <v>-4471390164307.42</v>
       </c>
       <c r="C16" t="n">
         <v>116800379402.818</v>
@@ -533,7 +533,7 @@
         <v>2006</v>
       </c>
       <c r="B17" t="n">
-        <v>-4537377474012.76</v>
+        <v>-4556550221537.09</v>
       </c>
       <c r="C17" t="n">
         <v>119057434316.519</v>
@@ -544,7 +544,7 @@
         <v>2007</v>
       </c>
       <c r="B18" t="n">
-        <v>-4546984449421.78</v>
+        <v>-4562089500241.73</v>
       </c>
       <c r="C18" t="n">
         <v>119398412273.803</v>
@@ -555,7 +555,7 @@
         <v>2008</v>
       </c>
       <c r="B19" t="n">
-        <v>-4671472933598.7</v>
+        <v>-4691525709441.89</v>
       </c>
       <c r="C19" t="n">
         <v>122622332027.74</v>
@@ -566,7 +566,7 @@
         <v>2009</v>
       </c>
       <c r="B20" t="n">
-        <v>-4738334874565.08</v>
+        <v>-4758398826929.58</v>
       </c>
       <c r="C20" t="n">
         <v>124249537506.757</v>
@@ -577,7 +577,7 @@
         <v>2010</v>
       </c>
       <c r="B21" t="n">
-        <v>-4932798811659.81</v>
+        <v>-4948504949508.42</v>
       </c>
       <c r="C21" t="n">
         <v>128952448529.837</v>
@@ -588,7 +588,7 @@
         <v>2011</v>
       </c>
       <c r="B22" t="n">
-        <v>-4967887519085.91</v>
+        <v>-4989267805748.53</v>
       </c>
       <c r="C22" t="n">
         <v>130237865264.127</v>
@@ -599,7 +599,7 @@
         <v>2012</v>
       </c>
       <c r="B23" t="n">
-        <v>-5187520351790.97</v>
+        <v>-5200834368661.93</v>
       </c>
       <c r="C23" t="n">
         <v>135442403225.982</v>
@@ -610,7 +610,7 @@
         <v>2013</v>
       </c>
       <c r="B24" t="n">
-        <v>-5363128724214.3</v>
+        <v>-5372375720986.17</v>
       </c>
       <c r="C24" t="n">
         <v>139712938430.927</v>
@@ -621,7 +621,7 @@
         <v>2014</v>
       </c>
       <c r="B25" t="n">
-        <v>-5510849933387.39</v>
+        <v>-5522364204213.46</v>
       </c>
       <c r="C25" t="n">
         <v>143485293037.281</v>
@@ -632,7 +632,7 @@
         <v>2015</v>
       </c>
       <c r="B26" t="n">
-        <v>-5672668640391.1</v>
+        <v>-5682486850447.72</v>
       </c>
       <c r="C26" t="n">
         <v>147395449972.367</v>
@@ -643,7 +643,7 @@
         <v>2016</v>
       </c>
       <c r="B27" t="n">
-        <v>-5792146688366.73</v>
+        <v>-5798313172794.49</v>
       </c>
       <c r="C27" t="n">
         <v>150306607400.455</v>
@@ -654,7 +654,7 @@
         <v>2017</v>
       </c>
       <c r="B28" t="n">
-        <v>-5924440833059.34</v>
+        <v>-5924795373616.11</v>
       </c>
       <c r="C28" t="n">
         <v>153376526311.904</v>
@@ -665,7 +665,7 @@
         <v>2018</v>
       </c>
       <c r="B29" t="n">
-        <v>-6092342659840.95</v>
+        <v>-6088987766648.78</v>
       </c>
       <c r="C29" t="n">
         <v>157661388182.435</v>
@@ -676,7 +676,7 @@
         <v>2019</v>
       </c>
       <c r="B30" t="n">
-        <v>-6178661344201.52</v>
+        <v>-6167625903388.95</v>
       </c>
       <c r="C30" t="n">
         <v>159822323183.053</v>
